--- a/Data/Data collected/Questionnaires_lables_old/2PQ-B_2025.xlsx
+++ b/Data/Data collected/Questionnaires_lables_old/2PQ-B_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/תואר פסיכולוגיה/תואר שני/תואר שני קלינית מחקרית/שיעורים - קלינית/מעבדה/תזה/Data/Data Collected/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tulum/Dropbox/Github/Creativity-in-ADHD/Data/Data collected/Questionnaires_lables_old/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F4E5EB0-81EA-0C44-91EC-31F55D8187CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A304D3DE-3BBE-8145-8D5E-D5EB30088B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4575" uniqueCount="356">
   <si>
     <t>StartDate</t>
   </si>
@@ -1093,6 +1093,9 @@
   </si>
   <si>
     <t>raK5i3</t>
+  </si>
+  <si>
+    <t>vQtQiu</t>
   </si>
 </sst>
 </file>
@@ -1476,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A86"/>
+    <sheetView tabSelected="1" topLeftCell="AW67" workbookViewId="0">
+      <selection activeCell="BJ73" sqref="BJ73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11818,8 +11821,8 @@
       <c r="BI55">
         <v>2</v>
       </c>
-      <c r="BJ55" s="2" t="s">
-        <v>120</v>
+      <c r="BJ55" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="56" spans="1:62" ht="48" x14ac:dyDescent="0.2">
@@ -15202,8 +15205,8 @@
       <c r="BI73">
         <v>0</v>
       </c>
-      <c r="BJ73" s="2" t="s">
-        <v>120</v>
+      <c r="BJ73" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:62" ht="48" x14ac:dyDescent="0.2">
@@ -16371,9 +16374,7 @@
       <c r="L80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="M80" s="2"/>
       <c r="N80">
         <v>31.253799999999998</v>
       </c>
@@ -17654,7 +17655,7 @@
   <autoFilter ref="A2:BJ87" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C86 D1:D86 G1:G86 I1:I86 J1:J86 K1:K86 L1:L86 M1:M86 P1:P86 Q1:Q86 R1:R86 S1:S86 T1:T86 U1:U86 V1:V86 W1:W86 X1:X86 Y1:Y86 Z1:Z86 AA1:AA86 AB1:AB86 AC1:AC86 AD1:AD86 AE1:AE86 AF1:AF86 AG1:AG86 AH1:AH86 AI1:AI86 AJ1:AJ86 AK1:AK86 AL1:AL86 AM1:AM86 AN1:AN86 AO1:AO86 AP1:AP86 AQ1:AQ86 AR1:AR86 AS1:AS86 AT1:AT86 AU1:AU86 AV1:AV86 AW1:AW86 AX1:AX86 AY1:AY86 AZ1:AZ86 BA1:BA86 BB1:BB86 BC1:BC86 BD1:BD86 BE1:BE86 BF1:BF86 BG1:BG86 BJ1:BJ86" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C86 D1:D86 G1:G86 I1:I86 J1:J86 K1:K86 L1:L86 M1:M79 P1:P86 Q1:Q86 R1:R86 S1:S86 T1:T86 U1:U86 V1:V86 W1:W86 X1:X86 Y1:Y86 Z1:Z86 AA1:AA86 AB1:AB86 AC1:AC86 AD1:AD86 AE1:AE86 AF1:AF86 AG1:AG86 AH1:AH86 AI1:AI86 AJ1:AJ86 AK1:AK86 AL1:AL86 AM1:AM86 AN1:AN86 AO1:AO86 AP1:AP86 AQ1:AQ86 AR1:AR86 AS1:AS86 AT1:AT86 AU1:AU86 AV1:AV86 AW1:AW86 AX1:AX86 AY1:AY86 AZ1:AZ86 BA1:BA86 BB1:BB86 BC1:BC86 BD1:BD86 BE1:BE86 BF1:BF86 BG1:BG86 BJ1:BJ54 M81:M86 BJ56:BJ72 BJ74:BJ86" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>